--- a/src/main/resources/subscribegeneratorreport.xlsx
+++ b/src/main/resources/subscribegeneratorreport.xlsx
@@ -6,45 +6,78 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-03-22 15-29" r:id="rId3" sheetId="1"/>
+    <sheet name="2019-03-25 14-33" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
-  <si>
-    <t>ÐÐ°Ð·Ð²Ð°Ð½Ð¸Ðµ ÑÐ°ÑÑÑÐ»ÐºÐ¸</t>
-  </si>
-  <si>
-    <t>ps id</t>
-  </si>
-  <si>
-    <t>ÐÐ¶Ð¸Ð´Ð°ÐµÐ¼ÑÐ¹ ÑÐµÐ·ÑÐ»ÑÑÐ°Ñ</t>
-  </si>
-  <si>
-    <t>ÐÐµÐ¹ÑÑÐ²Ð¸ÑÐµÐ»ÑÐ½ÑÐ¹ ÑÐµÐ·ÑÐ»ÑÑÐ°Ñ</t>
-  </si>
-  <si>
-    <t>ÐÑÐ¸Ð±ÐºÐ°</t>
-  </si>
-  <si>
-    <t>ÐÐ¾ÑÐ¾ÑÐºÐ¸Ð¹ Ð½Ð¾Ð¼ÐµÑ</t>
-  </si>
-  <si>
-    <t>Ð¢ÐµÐºÑÑ ÑÐ¾Ð¾Ð±ÑÐµÐ½Ð¸Ñ</t>
-  </si>
-  <si>
-    <t>ÐÐ¾ÑÐ¸ÑÐ¸ÐºÐ°ÑÐ¸Ñ Ð¿ÑÐ¸ Ð¿Ð¾Ð´ÐºÐ»ÑÑÐµÐ½Ð¸Ð¸</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="22">
+  <si>
+    <t>PS_ID_NAME</t>
+  </si>
+  <si>
+    <t>PS_ID</t>
+  </si>
+  <si>
+    <t>SHORT_NUM</t>
+  </si>
+  <si>
+    <t>REQUEST</t>
+  </si>
+  <si>
+    <t>EXPECTED_RESPONSE</t>
+  </si>
+  <si>
+    <t>ACTUAL_RESPONSE</t>
+  </si>
+  <si>
+    <t>ERROR_DATA</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>New Tema Молодёжка</t>
+  </si>
+  <si>
     <t>9771</t>
   </si>
   <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>d415</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Молодёжка. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>i415</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>test_error</t>
+  </si>
+  <si>
+    <t>New Tema Отель Элеон</t>
+  </si>
+  <si>
     <t>9772</t>
+  </si>
+  <si>
+    <t>i416</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Отель Элеон. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Отель Элеон. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#***</t>
+  </si>
+  <si>
+    <t>Expected 'welcome notification' and actual response from SDP do not match</t>
   </si>
 </sst>
 </file>
@@ -52,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -60,13 +93,82 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <i val="true"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,44 +183,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.70703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.51171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.84765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="168.41796875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="171.16796875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="71.45703125" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="8">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -129,22 +260,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s" s="9">
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -155,74 +286,68 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="11">
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="20">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E5" t="s" s="22">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s" s="23">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/subscribegeneratorreport.xlsx
+++ b/src/main/resources/subscribegeneratorreport.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-04-16 18-56" r:id="rId3" sheetId="1"/>
+    <sheet name="2019-04-22 18-46" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="73">
   <si>
     <t>PS_ID_NAME</t>
   </si>
@@ -33,6 +33,204 @@
   </si>
   <si>
     <t>ERROR_DATA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>New Tema Молодёжка</t>
+  </si>
+  <si>
+    <t>9771</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>sub-9771-1030009121</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Молодёжка. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subscribe response has not been received at 30 secs for msisdn: </t>
+  </si>
+  <si>
+    <t>sub-9771-1030009120</t>
+  </si>
+  <si>
+    <t>New Tema Отель Элеон</t>
+  </si>
+  <si>
+    <t>9772</t>
+  </si>
+  <si>
+    <t>sub-9772-1030009121</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Отель Элеон. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>sub-9772-1030009120</t>
+  </si>
+  <si>
+    <t>New Tema Команда Б</t>
+  </si>
+  <si>
+    <t>9773</t>
+  </si>
+  <si>
+    <t>sub-9773-1030009121</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Команда Б. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>sub-9773-1030009120</t>
+  </si>
+  <si>
+    <t>New Tema Чип и Дейл</t>
+  </si>
+  <si>
+    <t>9775</t>
+  </si>
+  <si>
+    <t>sub-9775-1030009121</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Чип и Дейл. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>sub-9775-1030009120</t>
+  </si>
+  <si>
+    <t>New Tema Тимон и Пумба</t>
+  </si>
+  <si>
+    <t>9776</t>
+  </si>
+  <si>
+    <t>sub-9776-1030009121</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Тимон и Пумба. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>sub-9776-1030009120</t>
+  </si>
+  <si>
+    <t>New Tema Тигруля и Винни</t>
+  </si>
+  <si>
+    <t>9777</t>
+  </si>
+  <si>
+    <t>sub-9777-1030009121</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Тигруля и Винни. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Тигруля и Винни по адресу tema.tele2.ru. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>Expected 'welcome notification' and actual response from SDP do not match</t>
+  </si>
+  <si>
+    <t>sub-9777-1030009120</t>
+  </si>
+  <si>
+    <t>New Tema Звёздные войны: Повстанцы</t>
+  </si>
+  <si>
+    <t>9778</t>
+  </si>
+  <si>
+    <t>sub-9778-1030009121</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Звёздные войны: Повстанцы. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Звёздные войны: Повстанцы по адресу tema.tele2.ru. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>sub-9778-1030009120</t>
+  </si>
+  <si>
+    <t>New Tema Звездные войны: Войны клонов</t>
+  </si>
+  <si>
+    <t>9779</t>
+  </si>
+  <si>
+    <t>sub-9779-1030009121</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Звездные войны: Войны клонов. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Звездные войны: Войны клонов по адресу tema.tele2.ru. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>sub-9779-1030009120</t>
+  </si>
+  <si>
+    <t>New Tema Отчаянные домохозяйки</t>
+  </si>
+  <si>
+    <t>9780</t>
+  </si>
+  <si>
+    <t>sub-9780-1030009121</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Отчаянные домохозяйки. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Отчаянные домохозяйки по адресу tema.tele2.ru. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>sub-9780-1030009120</t>
+  </si>
+  <si>
+    <t>New Tema Анатомия страсти</t>
+  </si>
+  <si>
+    <t>9781</t>
+  </si>
+  <si>
+    <t>sub-9781-1030009121</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Анатомия страсти. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис Анатомия страсти по адресу tema.tele2.ru. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>sub-9781-1030009120</t>
+  </si>
+  <si>
+    <t>New Tema София Прекрасная</t>
+  </si>
+  <si>
+    <t>9782</t>
+  </si>
+  <si>
+    <t>sub-9782-1030009121</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис София Прекрасная. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>Вам доступен сервис София Прекрасная по адресу tema.tele2.ru. Первые 3 дня бесплатно. Далее стоимость 8 руб./день. Для отключения наберите *152*9# Для отключения Tele2-тема наберите *152#</t>
+  </si>
+  <si>
+    <t>sub-9782-1030009120</t>
   </si>
 </sst>
 </file>
@@ -84,7 +282,7 @@
       <i val="true"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +299,16 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -114,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -123,28 +331,73 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.35546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="5.64453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.1875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.70703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.51171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.84765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="19.5234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.36328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.23046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.9765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="186.8671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="210.19921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="71.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="2"/>
     <row r="1">
       <c r="A1" t="s" s="1">
         <v>0</v>
@@ -166,6 +419,512 @@
       </c>
       <c r="G1" t="s" s="7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s" s="19">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s" s="20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s" s="22">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s" s="23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s" s="25">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s" s="24">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s" s="26">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s" s="28">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s" s="27">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s" s="29">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s" s="31">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s" s="30">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s" s="32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s" s="34">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s" s="33">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s" s="35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s" s="37">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s" s="36">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s" s="38">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s" s="40">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s" s="39">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s" s="41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s" s="43">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s" s="42">
+        <v>65</v>
+      </c>
+      <c r="G20" t="s" s="44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s" s="46">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s" s="45">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s" s="47">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s" s="49">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s" s="48">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s" s="50">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s" s="52">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s" s="51">
+        <v>71</v>
+      </c>
+      <c r="G23" t="s" s="53">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
